--- a/システム構成図.xlsx
+++ b/システム構成図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F94B39-E20E-4E07-96A6-388FCBD81494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E465A9E-F91F-44C4-95B1-5ED474D45F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D47CCFD9-5154-434A-B8C3-97D0E89F2622}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>AWS</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,13 @@
   </si>
   <si>
     <t>　∟PHP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム構成図</t>
+    <rPh sb="4" eb="7">
+      <t>コウセイズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -70,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +96,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -216,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +309,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,150 +628,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB382F7E-5E0E-4A61-9085-96FCF09C58EB}">
-  <dimension ref="C2:J14"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="3:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="3:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="2:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="3:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="4"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="4"/>
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="4"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="13"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="4"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
+      <c r="E6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="13"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="4"/>
       <c r="D7" s="12"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
       <c r="I7" s="13"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="4"/>
       <c r="D8" s="12"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
       <c r="I8" s="13"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="4"/>
       <c r="D9" s="12"/>
       <c r="E9" s="20"/>
       <c r="F9" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="22"/>
       <c r="I9" s="13"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="4"/>
       <c r="D10" s="12"/>
       <c r="E10" s="20"/>
       <c r="F10" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="22"/>
       <c r="I10" s="13"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="4"/>
       <c r="D11" s="12"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
       <c r="I11" s="13"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="3:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="4"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="13"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="3:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="4"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="3:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
+    <row r="14" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C14" s="4"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/システム構成図.xlsx
+++ b/システム構成図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\AWS構築演習\AWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E465A9E-F91F-44C4-95B1-5ED474D45F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188F4AE3-9972-4946-B908-4A1EA03DFB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D47CCFD9-5154-434A-B8C3-97D0E89F2622}"/>
   </bookViews>
@@ -66,8 +66,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システム構成図</t>
-    <rPh sb="4" eb="7">
+    <t>【AWS構築演習】システム構成図</t>
+    <rPh sb="4" eb="8">
+      <t>コウチクエンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
       <t>コウセイズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -77,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +108,15 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -232,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
@@ -312,6 +324,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -329,6 +344,327 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B302FB-1C9E-42CA-A90E-83304CE6A30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="1600200"/>
+          <a:ext cx="876300" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="コネクタ: カギ線 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEA9CFF-0303-EFF3-3290-7CCC5AFFC28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1657350" y="1485900"/>
+          <a:ext cx="3644900" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17777"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51D1663-9C9A-1673-39F7-C4E9A76CDCB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="2038350"/>
+          <a:ext cx="3638550" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17743"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E84617-A457-C9B5-0F0B-3F70314B3FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2940050" y="1117600"/>
+          <a:ext cx="1460500" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SSH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>接続</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142E33D8-9F58-45F9-B9DF-F7012673D3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2946400" y="2279650"/>
+          <a:ext cx="1460500" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>HTTP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>接続</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,160 +964,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB382F7E-5E0E-4A61-9085-96FCF09C58EB}">
-  <dimension ref="B2:J15"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="1.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:16" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:16" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="23" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="2:16" ht="23" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="26"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C5" s="4"/>
-      <c r="D5" s="9" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I5" s="4"/>
+      <c r="J5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="4"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="17" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" s="4"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="4"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="4"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="4"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="4"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="4"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="4"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="4"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21" t="s">
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="4"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="4"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21" t="s">
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="4"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="4"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21" t="s">
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="4"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C13" s="4"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C14" s="4"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I13" s="4"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I14" s="4"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>